--- a/results/mp/tinybert/toy-spam/confidence/42/stop-words-topk-0.1/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/42/stop-words-topk-0.1/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="87">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,190 +46,172 @@
     <t>disappointing</t>
   </si>
   <si>
+    <t>however</t>
+  </si>
+  <si>
+    <t>disappointed</t>
+  </si>
+  <si>
+    <t>broke</t>
+  </si>
+  <si>
+    <t>returned</t>
+  </si>
+  <si>
+    <t>poor</t>
+  </si>
+  <si>
+    <t>ripped</t>
+  </si>
+  <si>
+    <t>waste</t>
+  </si>
+  <si>
+    <t>instead</t>
+  </si>
+  <si>
+    <t>smaller</t>
+  </si>
+  <si>
+    <t>junk</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>tiny</t>
+  </si>
+  <si>
+    <t>probably</t>
+  </si>
+  <si>
     <t>thin</t>
   </si>
   <si>
-    <t>however</t>
-  </si>
-  <si>
-    <t>disappointed</t>
-  </si>
-  <si>
-    <t>broke</t>
-  </si>
-  <si>
-    <t>crap</t>
-  </si>
-  <si>
-    <t>poor</t>
-  </si>
-  <si>
-    <t>unfortunately</t>
-  </si>
-  <si>
-    <t>returned</t>
-  </si>
-  <si>
-    <t>waste</t>
-  </si>
-  <si>
-    <t>ripped</t>
-  </si>
-  <si>
-    <t>smaller</t>
-  </si>
-  <si>
-    <t>instead</t>
-  </si>
-  <si>
-    <t>junk</t>
+    <t>missing</t>
+  </si>
+  <si>
+    <t>guess</t>
+  </si>
+  <si>
+    <t>small</t>
+  </si>
+  <si>
+    <t>broken</t>
+  </si>
+  <si>
+    <t>plastic</t>
+  </si>
+  <si>
+    <t>apart</t>
   </si>
   <si>
     <t>okay</t>
   </si>
   <si>
-    <t>guess</t>
-  </si>
-  <si>
-    <t>small</t>
-  </si>
-  <si>
-    <t>missing</t>
-  </si>
-  <si>
-    <t>pool</t>
-  </si>
-  <si>
-    <t>probably</t>
+    <t>difficult</t>
   </si>
   <si>
     <t>paint</t>
   </si>
   <si>
-    <t>tiny</t>
-  </si>
-  <si>
-    <t>water</t>
-  </si>
-  <si>
-    <t>broken</t>
-  </si>
-  <si>
-    <t>plastic</t>
-  </si>
-  <si>
-    <t>apart</t>
-  </si>
-  <si>
-    <t>difficult</t>
+    <t>di</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>fell</t>
+  </si>
+  <si>
+    <t>half</t>
+  </si>
+  <si>
+    <t>pay</t>
   </si>
   <si>
     <t>less</t>
   </si>
   <si>
-    <t>short</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>half</t>
-  </si>
-  <si>
     <t>thought</t>
   </si>
   <si>
-    <t>tried</t>
-  </si>
-  <si>
     <t>cheap</t>
   </si>
   <si>
-    <t>pay</t>
-  </si>
-  <si>
     <t>size</t>
   </si>
   <si>
+    <t>sound</t>
+  </si>
+  <si>
+    <t>bit</t>
+  </si>
+  <si>
     <t>though</t>
   </si>
   <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>color</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>bit</t>
-  </si>
-  <si>
     <t>item</t>
   </si>
   <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
     <t>would</t>
   </si>
   <si>
-    <t>money</t>
-  </si>
-  <si>
-    <t>work</t>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>used</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>worked</t>
   </si>
   <si>
     <t>could</t>
   </si>
   <si>
-    <t>worked</t>
+    <t>look</t>
+  </si>
+  <si>
+    <t>price</t>
   </si>
   <si>
     <t>back</t>
   </si>
   <si>
-    <t>used</t>
-  </si>
-  <si>
-    <t>product</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>hard</t>
-  </si>
-  <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>better</t>
+    <t>expected</t>
+  </si>
+  <si>
+    <t>use</t>
+  </si>
+  <si>
+    <t>3</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>expected</t>
-  </si>
-  <si>
-    <t>pieces</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>use</t>
+    <t>box</t>
+  </si>
+  <si>
+    <t>little</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>little</t>
+    <t>much</t>
   </si>
   <si>
     <t>one</t>
@@ -253,9 +235,6 @@
     <t>favorite</t>
   </si>
   <si>
-    <t>enjoyable</t>
-  </si>
-  <si>
     <t>classic</t>
   </si>
   <si>
@@ -286,16 +265,10 @@
     <t>friends</t>
   </si>
   <si>
-    <t>learn</t>
-  </si>
-  <si>
     <t>christmas</t>
   </si>
   <si>
     <t>fun</t>
-  </si>
-  <si>
-    <t>family</t>
   </si>
   <si>
     <t>game</t>
@@ -659,7 +632,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q68"/>
+  <dimension ref="A1:Q62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -667,10 +640,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="J1" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -728,13 +701,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9565217391304348</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D3">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -746,19 +719,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="K3">
-        <v>0.8928571428571429</v>
+        <v>0.875</v>
       </c>
       <c r="L3">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M3">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -770,7 +743,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -778,13 +751,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8636363636363636</v>
+        <v>0.8863636363636364</v>
       </c>
       <c r="C4">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D4">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -796,19 +769,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="K4">
-        <v>0.8153846153846154</v>
+        <v>0.8615384615384616</v>
       </c>
       <c r="L4">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M4">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -820,7 +793,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -828,13 +801,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8275862068965517</v>
+        <v>0.78125</v>
       </c>
       <c r="C5">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="D5">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -846,19 +819,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="K5">
-        <v>0.8148148148148148</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="L5">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M5">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -870,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -878,13 +851,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.78125</v>
+        <v>0.7419354838709677</v>
       </c>
       <c r="C6">
-        <v>50</v>
+        <v>138</v>
       </c>
       <c r="D6">
-        <v>50</v>
+        <v>138</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -896,19 +869,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="K6">
-        <v>0.7311827956989247</v>
+        <v>0.6451612903225806</v>
       </c>
       <c r="L6">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="M6">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -920,7 +893,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -928,13 +901,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7526881720430108</v>
+        <v>0.7184466019417476</v>
       </c>
       <c r="C7">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="D7">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -946,19 +919,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="K7">
-        <v>0.625</v>
+        <v>0.6226415094339622</v>
       </c>
       <c r="L7">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="M7">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -970,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -978,13 +951,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7330097087378641</v>
+        <v>0.7105263157894737</v>
       </c>
       <c r="C8">
-        <v>151</v>
+        <v>27</v>
       </c>
       <c r="D8">
-        <v>151</v>
+        <v>27</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -996,19 +969,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K8">
-        <v>0.5660377358490566</v>
+        <v>0.5</v>
       </c>
       <c r="L8">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M8">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1020,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1028,13 +1001,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7142857142857143</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="C9">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="D9">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1046,19 +1019,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="K9">
-        <v>0.46875</v>
+        <v>0.4057971014492754</v>
       </c>
       <c r="L9">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M9">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1070,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1078,13 +1051,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.704225352112676</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="C10">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="D10">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1096,19 +1069,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="K10">
-        <v>0.391304347826087</v>
+        <v>0.3491803278688524</v>
       </c>
       <c r="L10">
-        <v>27</v>
+        <v>426</v>
       </c>
       <c r="M10">
-        <v>27</v>
+        <v>426</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1120,7 +1093,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>42</v>
+        <v>794</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1128,13 +1101,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6818181818181818</v>
+        <v>0.6621621621621622</v>
       </c>
       <c r="C11">
-        <v>15</v>
+        <v>98</v>
       </c>
       <c r="D11">
-        <v>15</v>
+        <v>98</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1146,19 +1119,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="K11">
-        <v>0.3434426229508197</v>
+        <v>0.2916666666666667</v>
       </c>
       <c r="L11">
-        <v>419</v>
+        <v>203</v>
       </c>
       <c r="M11">
-        <v>419</v>
+        <v>204</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1167,10 +1140,10 @@
         <v>0</v>
       </c>
       <c r="P11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11">
-        <v>801</v>
+        <v>493</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1178,13 +1151,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6578947368421053</v>
+        <v>0.6041666666666666</v>
       </c>
       <c r="C12">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D12">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1196,19 +1169,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="K12">
-        <v>0.2812051649928264</v>
+        <v>0.2448132780082987</v>
       </c>
       <c r="L12">
-        <v>196</v>
+        <v>118</v>
       </c>
       <c r="M12">
-        <v>196</v>
+        <v>118</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1220,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>501</v>
+        <v>364</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1228,13 +1201,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6283783783783784</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="C13">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="D13">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1246,19 +1219,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="K13">
-        <v>0.2780082987551867</v>
+        <v>0.2416666666666667</v>
       </c>
       <c r="L13">
-        <v>134</v>
+        <v>29</v>
       </c>
       <c r="M13">
-        <v>134</v>
+        <v>29</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1270,7 +1243,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>348</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1278,13 +1251,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5925925925925926</v>
+        <v>0.5818181818181818</v>
       </c>
       <c r="C14">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="D14">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1296,19 +1269,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="K14">
-        <v>0.225</v>
+        <v>0.1927710843373494</v>
       </c>
       <c r="L14">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="M14">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1320,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>93</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1328,13 +1301,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5798319327731093</v>
+        <v>0.5476190476190477</v>
       </c>
       <c r="C15">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="D15">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1346,19 +1319,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="K15">
-        <v>0.2108433734939759</v>
+        <v>0.1865443425076453</v>
       </c>
       <c r="L15">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="M15">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1370,7 +1343,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>131</v>
+        <v>266</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1378,38 +1351,38 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5625</v>
+        <v>0.5428571428571428</v>
       </c>
       <c r="C16">
+        <v>19</v>
+      </c>
+      <c r="D16">
+        <v>19</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>16</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K16">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="L16">
         <v>27</v>
       </c>
-      <c r="D16">
+      <c r="M16">
         <v>27</v>
       </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>21</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="K16">
-        <v>0.1865443425076453</v>
-      </c>
-      <c r="L16">
-        <v>61</v>
-      </c>
-      <c r="M16">
-        <v>61</v>
-      </c>
       <c r="N16">
         <v>1</v>
       </c>
@@ -1420,7 +1393,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>266</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1428,13 +1401,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.509090909090909</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="C17">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D17">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1446,19 +1419,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="K17">
-        <v>0.1428571428571428</v>
+        <v>0.08835341365461848</v>
       </c>
       <c r="L17">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="M17">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1470,7 +1443,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>162</v>
+        <v>227</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1478,13 +1451,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5</v>
+        <v>0.5172413793103449</v>
       </c>
       <c r="C18">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D18">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1496,19 +1469,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="K18">
-        <v>0.1171875</v>
+        <v>0.08326029798422437</v>
       </c>
       <c r="L18">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="M18">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1520,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>113</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1528,13 +1501,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5</v>
+        <v>0.5111111111111111</v>
       </c>
       <c r="C19">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D19">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1546,31 +1519,31 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="K19">
-        <v>0.08433734939759036</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="L19">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="M19">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="N19">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19">
-        <v>228</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1578,13 +1551,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4985507246376812</v>
+        <v>0.5</v>
       </c>
       <c r="C20">
-        <v>172</v>
+        <v>27</v>
       </c>
       <c r="D20">
-        <v>172</v>
+        <v>27</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1596,31 +1569,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>173</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="K20">
-        <v>0.07099035933391762</v>
-      </c>
-      <c r="L20">
-        <v>81</v>
-      </c>
-      <c r="M20">
-        <v>81</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>1060</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1628,13 +1577,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.4888888888888889</v>
+        <v>0.4898550724637681</v>
       </c>
       <c r="C21">
-        <v>22</v>
+        <v>169</v>
       </c>
       <c r="D21">
-        <v>22</v>
+        <v>169</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1646,31 +1595,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>23</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="K21">
-        <v>0.04735376044568245</v>
-      </c>
-      <c r="L21">
-        <v>17</v>
-      </c>
-      <c r="M21">
-        <v>17</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>342</v>
+        <v>176</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1678,13 +1603,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.4857142857142857</v>
+        <v>0.4216867469879518</v>
       </c>
       <c r="C22">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="D22">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1696,31 +1621,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>18</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="K22">
-        <v>0.027255029201817</v>
-      </c>
-      <c r="L22">
-        <v>42</v>
-      </c>
-      <c r="M22">
-        <v>42</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>1499</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1728,13 +1629,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4736842105263158</v>
+        <v>0.4173228346456693</v>
       </c>
       <c r="C23">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="D23">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1746,7 +1647,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>20</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1754,13 +1655,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.4603174603174603</v>
+        <v>0.4105263157894737</v>
       </c>
       <c r="C24">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="D24">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1772,7 +1673,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>34</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1780,13 +1681,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.4571428571428571</v>
+        <v>0.4074074074074074</v>
       </c>
       <c r="C25">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D25">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1798,7 +1699,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>19</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1806,13 +1707,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.4523809523809524</v>
+        <v>0.3707865168539326</v>
       </c>
       <c r="C26">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="D26">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1824,7 +1725,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>23</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1832,13 +1733,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.4457831325301205</v>
+        <v>0.3650793650793651</v>
       </c>
       <c r="C27">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="D27">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1850,7 +1751,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1858,13 +1759,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.4173228346456693</v>
+        <v>0.359375</v>
       </c>
       <c r="C28">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="D28">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1876,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>74</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1884,13 +1785,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.4</v>
+        <v>0.3359375</v>
       </c>
       <c r="C29">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D29">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1902,7 +1803,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>57</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1910,13 +1811,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.3707865168539326</v>
+        <v>0.3272727272727273</v>
       </c>
       <c r="C30">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="D30">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1928,7 +1829,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>56</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1936,13 +1837,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.3666666666666666</v>
+        <v>0.2962962962962963</v>
       </c>
       <c r="C31">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D31">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1962,13 +1863,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.3469387755102041</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C32">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D32">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1980,7 +1881,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>32</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1988,13 +1889,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.3203125</v>
+        <v>0.2833333333333333</v>
       </c>
       <c r="C33">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="D33">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2006,7 +1907,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>87</v>
+        <v>43</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2014,13 +1915,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.3148148148148148</v>
+        <v>0.2772277227722773</v>
       </c>
       <c r="C34">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="D34">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2032,7 +1933,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>37</v>
+        <v>146</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2040,13 +1941,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.301980198019802</v>
+        <v>0.2654028436018958</v>
       </c>
       <c r="C35">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D35">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2058,7 +1959,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>141</v>
+        <v>155</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2066,13 +1967,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.2950819672131147</v>
+        <v>0.2319587628865979</v>
       </c>
       <c r="C36">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="D36">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2084,7 +1985,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>43</v>
+        <v>149</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2092,13 +1993,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.2890995260663507</v>
+        <v>0.2173913043478261</v>
       </c>
       <c r="C37">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="D37">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2110,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>150</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2118,13 +2019,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.2698412698412698</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="C38">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D38">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2136,7 +2037,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>46</v>
+        <v>77</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2144,13 +2045,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.2577319587628866</v>
+        <v>0.2051282051282051</v>
       </c>
       <c r="C39">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D39">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2162,7 +2063,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>144</v>
+        <v>93</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2170,13 +2071,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.2564102564102564</v>
+        <v>0.1920289855072464</v>
       </c>
       <c r="C40">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="D40">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2188,7 +2089,7 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>87</v>
+        <v>223</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2196,13 +2097,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.25</v>
+        <v>0.1835443037974684</v>
       </c>
       <c r="C41">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="D41">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2214,7 +2115,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>48</v>
+        <v>258</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2222,13 +2123,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.2266666666666667</v>
+        <v>0.1835443037974684</v>
       </c>
       <c r="C42">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="D42">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2240,7 +2141,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>58</v>
+        <v>258</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2248,13 +2149,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.2238805970149254</v>
+        <v>0.1557863501483679</v>
       </c>
       <c r="C43">
-        <v>15</v>
+        <v>105</v>
       </c>
       <c r="D43">
-        <v>15</v>
+        <v>105</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2266,7 +2167,7 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>52</v>
+        <v>569</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2274,13 +2175,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.1938775510204082</v>
+        <v>0.155</v>
       </c>
       <c r="C44">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="D44">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2292,7 +2193,7 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>79</v>
+        <v>169</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2300,13 +2201,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.177536231884058</v>
+        <v>0.1542857142857143</v>
       </c>
       <c r="C45">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="D45">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2318,7 +2219,7 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>227</v>
+        <v>148</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2326,13 +2227,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.1617210682492582</v>
+        <v>0.1495327102803738</v>
       </c>
       <c r="C46">
-        <v>109</v>
+        <v>32</v>
       </c>
       <c r="D46">
-        <v>109</v>
+        <v>32</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2344,7 +2245,7 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>565</v>
+        <v>182</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2352,13 +2253,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.1582278481012658</v>
+        <v>0.1409691629955947</v>
       </c>
       <c r="C47">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="D47">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2370,7 +2271,7 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>266</v>
+        <v>390</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2378,13 +2279,13 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.1550632911392405</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="C48">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="D48">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -2396,7 +2297,7 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>267</v>
+        <v>93</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2404,13 +2305,13 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.1464968152866242</v>
+        <v>0.1210191082802548</v>
       </c>
       <c r="C49">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D49">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -2422,7 +2323,7 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2430,7 +2331,7 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.1388888888888889</v>
+        <v>0.1171875</v>
       </c>
       <c r="C50">
         <v>15</v>
@@ -2448,7 +2349,7 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>93</v>
+        <v>113</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2456,13 +2357,13 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.1357142857142857</v>
+        <v>0.1149425287356322</v>
       </c>
       <c r="C51">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="D51">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -2474,7 +2375,7 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>121</v>
+        <v>308</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2482,13 +2383,13 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.1314285714285714</v>
+        <v>0.1142857142857143</v>
       </c>
       <c r="C52">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D52">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -2500,7 +2401,7 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>152</v>
+        <v>124</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2508,13 +2409,13 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1277533039647577</v>
+        <v>0.1041666666666667</v>
       </c>
       <c r="C53">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="D53">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -2526,7 +2427,7 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>396</v>
+        <v>172</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2534,13 +2435,13 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.1264367816091954</v>
+        <v>0.1013698630136986</v>
       </c>
       <c r="C54">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D54">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -2552,7 +2453,7 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>304</v>
+        <v>328</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2560,7 +2461,7 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.12</v>
+        <v>0.09677419354838709</v>
       </c>
       <c r="C55">
         <v>24</v>
@@ -2578,7 +2479,7 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>176</v>
+        <v>224</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2586,13 +2487,13 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1171875</v>
+        <v>0.08614232209737828</v>
       </c>
       <c r="C56">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D56">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -2604,7 +2505,7 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>113</v>
+        <v>244</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2612,13 +2513,13 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.1168224299065421</v>
+        <v>0.08376963350785341</v>
       </c>
       <c r="C57">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D57">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -2630,7 +2531,7 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>189</v>
+        <v>175</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2638,13 +2539,13 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1086142322097378</v>
+        <v>0.07126948775055679</v>
       </c>
       <c r="C58">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D58">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -2656,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <v>238</v>
+        <v>417</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2664,25 +2565,25 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.101063829787234</v>
+        <v>0.05592105263157895</v>
       </c>
       <c r="C59">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="D59">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="E59">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F59">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H59">
-        <v>169</v>
+        <v>574</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2690,25 +2591,25 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.09375</v>
+        <v>0.03953488372093023</v>
       </c>
       <c r="C60">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D60">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E60">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="F60">
-        <v>1</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="G60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H60">
-        <v>174</v>
+        <v>413</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2716,25 +2617,25 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.09289617486338798</v>
+        <v>0.0316055625790139</v>
       </c>
       <c r="C61">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D61">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="F61">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="G61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H61">
-        <v>166</v>
+        <v>766</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2742,180 +2643,24 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.08870967741935484</v>
+        <v>0.02293577981651376</v>
       </c>
       <c r="C62">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D62">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="F62">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H62">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
-      <c r="A63" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B63">
-        <v>0.07945205479452055</v>
-      </c>
-      <c r="C63">
-        <v>29</v>
-      </c>
-      <c r="D63">
-        <v>29</v>
-      </c>
-      <c r="E63">
-        <v>0</v>
-      </c>
-      <c r="F63">
-        <v>1</v>
-      </c>
-      <c r="G63" t="b">
-        <v>0</v>
-      </c>
-      <c r="H63">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
-      <c r="A64" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B64">
-        <v>0.07084019769357495</v>
-      </c>
-      <c r="C64">
-        <v>43</v>
-      </c>
-      <c r="D64">
-        <v>44</v>
-      </c>
-      <c r="E64">
-        <v>0.02</v>
-      </c>
-      <c r="F64">
-        <v>0.98</v>
-      </c>
-      <c r="G64" t="b">
-        <v>1</v>
-      </c>
-      <c r="H64">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
-      <c r="A65" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B65">
-        <v>0.05633802816901409</v>
-      </c>
-      <c r="C65">
-        <v>20</v>
-      </c>
-      <c r="D65">
-        <v>20</v>
-      </c>
-      <c r="E65">
-        <v>0</v>
-      </c>
-      <c r="F65">
-        <v>1</v>
-      </c>
-      <c r="G65" t="b">
-        <v>0</v>
-      </c>
-      <c r="H65">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
-      <c r="A66" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B66">
-        <v>0.0556792873051225</v>
-      </c>
-      <c r="C66">
-        <v>25</v>
-      </c>
-      <c r="D66">
-        <v>25</v>
-      </c>
-      <c r="E66">
-        <v>0</v>
-      </c>
-      <c r="F66">
-        <v>1</v>
-      </c>
-      <c r="G66" t="b">
-        <v>0</v>
-      </c>
-      <c r="H66">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
-      <c r="A67" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B67">
-        <v>0.02777777777777778</v>
-      </c>
-      <c r="C67">
-        <v>22</v>
-      </c>
-      <c r="D67">
-        <v>24</v>
-      </c>
-      <c r="E67">
-        <v>0.08</v>
-      </c>
-      <c r="F67">
-        <v>0.92</v>
-      </c>
-      <c r="G67" t="b">
-        <v>1</v>
-      </c>
-      <c r="H67">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
-      <c r="A68" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B68">
-        <v>0.02293577981651376</v>
-      </c>
-      <c r="C68">
-        <v>15</v>
-      </c>
-      <c r="D68">
-        <v>16</v>
-      </c>
-      <c r="E68">
-        <v>0.06</v>
-      </c>
-      <c r="F68">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="G68" t="b">
-        <v>1</v>
-      </c>
-      <c r="H68">
         <v>639</v>
       </c>
     </row>
